--- a/results/mp/logistic/home-spam/confidence/84/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/84/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="132">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,283 +43,325 @@
     <t>return</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>plates</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>glasses</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>l</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>defective</t>
+  </si>
+  <si>
+    <t>returning</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>unless</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>thin</t>
+    <t>spray</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>cracked</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>china</t>
+  </si>
+  <si>
+    <t>fell</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>useless</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>filter</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>however</t>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>iron</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>lid</t>
-  </si>
-  <si>
-    <t>china</t>
+    <t>half</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>seal</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>sent</t>
+    <t>doesn</t>
+  </si>
+  <si>
+    <t>sharpe</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>rust</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>didn</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>"</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>otherwise</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>rust</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>glass</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>sharpe</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>were</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>does</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>too</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>came</t>
-  </si>
-  <si>
-    <t>stick</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>or</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>they</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>negative</t>
@@ -331,12 +373,12 @@
     <t>loves</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -346,94 +388,25 @@
     <t>pleased</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
     <t>perfectly</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>ze</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>!</t>
   </si>
   <si>
     <t>positive</t>
@@ -794,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -802,10 +775,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="J1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -863,13 +836,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9292035398230089</v>
+        <v>0.9469026548672567</v>
       </c>
       <c r="C3">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D3">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -881,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="K3">
-        <v>0.828125</v>
+        <v>0.8125</v>
       </c>
       <c r="L3">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M3">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -905,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -913,13 +886,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9245283018867925</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="C4">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="D4">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -931,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="K4">
-        <v>0.8064516129032258</v>
+        <v>0.7634408602150538</v>
       </c>
       <c r="L4">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M4">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -955,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -963,13 +936,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8888888888888888</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -981,31 +954,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5">
+        <v>0.7608695652173914</v>
+      </c>
+      <c r="L5">
+        <v>35</v>
+      </c>
+      <c r="M5">
+        <v>35</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>11</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5">
-        <v>0.7457627118644068</v>
-      </c>
-      <c r="L5">
-        <v>220</v>
-      </c>
-      <c r="M5">
-        <v>220</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1013,13 +986,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8813559322033898</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="C6">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1031,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="K6">
-        <v>0.7391304347826086</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1055,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1063,13 +1036,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8540540540540541</v>
+        <v>0.86</v>
       </c>
       <c r="C7">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1081,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="K7">
-        <v>0.7368421052631579</v>
+        <v>0.5913312693498453</v>
       </c>
       <c r="L7">
-        <v>476</v>
+        <v>382</v>
       </c>
       <c r="M7">
-        <v>476</v>
+        <v>382</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1105,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>170</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1113,13 +1086,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8301886792452831</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1131,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="K8">
-        <v>0.6190476190476191</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="L8">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="M8">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1155,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1163,13 +1136,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7884615384615384</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1181,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="K9">
-        <v>0.6103896103896104</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1205,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1213,13 +1186,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7534246575342466</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C10">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1231,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="K10">
-        <v>0.4657534246575342</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1255,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1263,13 +1236,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7333333333333333</v>
+        <v>0.8305084745762712</v>
       </c>
       <c r="C11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1281,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="K11">
-        <v>0.4605263157894737</v>
+        <v>0.2342857142857143</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1305,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>41</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1313,13 +1286,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.725</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1331,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="K12">
-        <v>0.3942857142857143</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L12">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="M12">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1355,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>106</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1363,13 +1336,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7111111111111111</v>
+        <v>0.825</v>
       </c>
       <c r="C13">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1381,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="K13">
-        <v>0.375</v>
+        <v>0.1613162118780096</v>
       </c>
       <c r="L13">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="M13">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1405,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1413,13 +1386,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7045454545454546</v>
+        <v>0.745945945945946</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1431,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="K14">
-        <v>0.3555555555555556</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="L14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1455,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1463,13 +1436,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6911764705882353</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="C15">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1481,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="K15">
-        <v>0.3492063492063492</v>
+        <v>0.05205479452054795</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1505,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>41</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1513,13 +1486,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.676056338028169</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="C16">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1534,42 +1507,42 @@
         <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="K16">
-        <v>0.345679012345679</v>
+        <v>0.01830443159922929</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6698113207547169</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C17">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D17">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1581,45 +1554,21 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>35</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K17">
-        <v>0.331456154465004</v>
-      </c>
-      <c r="L17">
-        <v>412</v>
-      </c>
-      <c r="M17">
-        <v>415</v>
-      </c>
-      <c r="N17">
-        <v>0.99</v>
-      </c>
-      <c r="O17">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6589147286821705</v>
+        <v>0.6730769230769231</v>
       </c>
       <c r="C18">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1631,45 +1580,21 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>44</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K18">
-        <v>0.3188405797101449</v>
-      </c>
-      <c r="L18">
-        <v>22</v>
-      </c>
-      <c r="M18">
-        <v>22</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.64</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1681,45 +1606,21 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19">
-        <v>0.2957746478873239</v>
-      </c>
-      <c r="L19">
-        <v>21</v>
-      </c>
-      <c r="M19">
-        <v>21</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.632183908045977</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C20">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1731,45 +1632,21 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>32</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K20">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="L20">
-        <v>20</v>
-      </c>
-      <c r="M20">
-        <v>20</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6296296296296297</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1781,45 +1658,21 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>10</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K21">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="L21">
-        <v>30</v>
-      </c>
-      <c r="M21">
-        <v>30</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6282051282051282</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C22">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1831,45 +1684,21 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>29</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K22">
-        <v>0.2688172043010753</v>
-      </c>
-      <c r="L22">
-        <v>25</v>
-      </c>
-      <c r="M22">
-        <v>26</v>
-      </c>
-      <c r="N22">
-        <v>0.96</v>
-      </c>
-      <c r="O22">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6148648648648649</v>
+        <v>0.5994708994708995</v>
       </c>
       <c r="C23">
-        <v>91</v>
+        <v>1133</v>
       </c>
       <c r="D23">
-        <v>91</v>
+        <v>1133</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1881,45 +1710,21 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>57</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K23">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="L23">
-        <v>16</v>
-      </c>
-      <c r="M23">
-        <v>16</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6051282051282051</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="C24">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1931,45 +1736,21 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>77</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K24">
-        <v>0.2115384615384615</v>
-      </c>
-      <c r="L24">
         <v>22</v>
       </c>
-      <c r="M24">
-        <v>22</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5663716814159292</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="C25">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1981,45 +1762,21 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>49</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K25">
-        <v>0.2054794520547945</v>
-      </c>
-      <c r="L25">
-        <v>150</v>
-      </c>
-      <c r="M25">
-        <v>150</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5428571428571428</v>
+        <v>0.5566037735849056</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2031,45 +1788,21 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>16</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K26">
-        <v>0.1847826086956522</v>
-      </c>
-      <c r="L26">
-        <v>17</v>
-      </c>
-      <c r="M26">
-        <v>17</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5192307692307693</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2081,45 +1814,21 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>25</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K27">
-        <v>0.1755725190839695</v>
-      </c>
-      <c r="L27">
-        <v>23</v>
-      </c>
-      <c r="M27">
-        <v>23</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5128205128205128</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C28">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2131,45 +1840,21 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>76</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K28">
-        <v>0.1589403973509934</v>
-      </c>
-      <c r="L28">
-        <v>24</v>
-      </c>
-      <c r="M28">
-        <v>24</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5111111111111111</v>
+        <v>0.53125</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2181,45 +1866,21 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>22</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K29">
-        <v>0.1485148514851485</v>
-      </c>
-      <c r="L29">
         <v>15</v>
       </c>
-      <c r="M29">
-        <v>15</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5096153846153846</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C30">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2231,45 +1892,21 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>51</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K30">
-        <v>0.1454545454545454</v>
-      </c>
-      <c r="L30">
-        <v>24</v>
-      </c>
-      <c r="M30">
-        <v>25</v>
-      </c>
-      <c r="N30">
-        <v>0.96</v>
-      </c>
-      <c r="O30">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4757281553398058</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C31">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2281,45 +1918,21 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>54</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K31">
-        <v>0.144578313253012</v>
-      </c>
-      <c r="L31">
-        <v>24</v>
-      </c>
-      <c r="M31">
-        <v>25</v>
-      </c>
-      <c r="N31">
-        <v>0.96</v>
-      </c>
-      <c r="O31">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P31" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4411764705882353</v>
+        <v>0.5271317829457365</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2331,45 +1944,21 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>19</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K32">
-        <v>0.113022113022113</v>
-      </c>
-      <c r="L32">
-        <v>46</v>
-      </c>
-      <c r="M32">
-        <v>47</v>
-      </c>
-      <c r="N32">
-        <v>0.98</v>
-      </c>
-      <c r="O32">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4189944134078212</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C33">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2381,45 +1970,21 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>104</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K33">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="L33">
-        <v>19</v>
-      </c>
-      <c r="M33">
-        <v>19</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2431,45 +1996,21 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>33</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K34">
-        <v>0.06711409395973154</v>
-      </c>
-      <c r="L34">
-        <v>50</v>
-      </c>
-      <c r="M34">
-        <v>60</v>
-      </c>
-      <c r="N34">
-        <v>0.83</v>
-      </c>
-      <c r="O34">
-        <v>0.17</v>
-      </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3857142857142857</v>
+        <v>0.5037037037037037</v>
       </c>
       <c r="C35">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D35">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2481,45 +2022,21 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>129</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K35">
-        <v>0.06324110671936758</v>
-      </c>
-      <c r="L35">
-        <v>16</v>
-      </c>
-      <c r="M35">
-        <v>20</v>
-      </c>
-      <c r="N35">
-        <v>0.8</v>
-      </c>
-      <c r="O35">
-        <v>0.2</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3777777777777778</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2531,45 +2048,21 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>28</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K36">
-        <v>0.05045278137128072</v>
-      </c>
-      <c r="L36">
-        <v>39</v>
-      </c>
-      <c r="M36">
-        <v>48</v>
-      </c>
-      <c r="N36">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O36">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.373015873015873</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="C37">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D37">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2581,45 +2074,21 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>79</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K37">
-        <v>0.04578313253012048</v>
-      </c>
-      <c r="L37">
-        <v>19</v>
-      </c>
-      <c r="M37">
-        <v>23</v>
-      </c>
-      <c r="N37">
-        <v>0.83</v>
-      </c>
-      <c r="O37">
-        <v>0.17</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3703703703703703</v>
+        <v>0.4367816091954023</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2631,95 +2100,47 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>34</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K38">
-        <v>0.04357298474945534</v>
-      </c>
-      <c r="L38">
-        <v>40</v>
-      </c>
-      <c r="M38">
-        <v>51</v>
-      </c>
-      <c r="N38">
-        <v>0.78</v>
-      </c>
-      <c r="O38">
-        <v>0.22</v>
-      </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3668341708542713</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C39">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D39">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="E39">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>126</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K39">
-        <v>0.02332361516034985</v>
-      </c>
-      <c r="L39">
-        <v>16</v>
-      </c>
-      <c r="M39">
-        <v>28</v>
-      </c>
-      <c r="N39">
-        <v>0.57</v>
-      </c>
-      <c r="O39">
-        <v>0.43</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3636363636363636</v>
+        <v>0.4070796460176991</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2731,45 +2152,21 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>28</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K40">
-        <v>0.01477377654662973</v>
-      </c>
-      <c r="L40">
-        <v>16</v>
-      </c>
-      <c r="M40">
-        <v>90</v>
-      </c>
-      <c r="N40">
-        <v>0.18</v>
-      </c>
-      <c r="O40">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3505154639175257</v>
+        <v>0.4</v>
       </c>
       <c r="C41">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2781,15 +2178,15 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3461538461538461</v>
+        <v>0.4</v>
       </c>
       <c r="C42">
         <v>18</v>
@@ -2807,21 +2204,21 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3434343434343434</v>
+        <v>0.3918918918918919</v>
       </c>
       <c r="C43">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D43">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2833,21 +2230,21 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.3289473684210527</v>
+        <v>0.3863636363636364</v>
       </c>
       <c r="C44">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2859,47 +2256,47 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.3135135135135135</v>
+        <v>0.3702702702702703</v>
       </c>
       <c r="C45">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="D45">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E45">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.308641975308642</v>
+        <v>0.3269230769230769</v>
       </c>
       <c r="C46">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2911,21 +2308,21 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.303030303030303</v>
+        <v>0.3106796116504854</v>
       </c>
       <c r="C47">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2937,21 +2334,21 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2913907284768212</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C48">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D48">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2963,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>107</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2971,13 +2368,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.29</v>
+        <v>0.2849162011173184</v>
       </c>
       <c r="C49">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D49">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2989,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>71</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2997,13 +2394,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.288135593220339</v>
+        <v>0.2788104089219331</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3015,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>42</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3023,13 +2420,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2786885245901639</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C51">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D51">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3041,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3049,13 +2446,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2634408602150538</v>
+        <v>0.2628205128205128</v>
       </c>
       <c r="C52">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D52">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3067,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3075,13 +2472,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2620689655172414</v>
+        <v>0.2622222222222222</v>
       </c>
       <c r="C53">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D53">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3093,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>107</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3127,13 +2524,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.252808988764045</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C55">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D55">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3145,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>133</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3153,13 +2550,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2448979591836735</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C56">
-        <v>72</v>
+        <v>351</v>
       </c>
       <c r="D56">
-        <v>72</v>
+        <v>351</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3171,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>222</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3179,13 +2576,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2352941176470588</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="C57">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D57">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3197,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>65</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3205,7 +2602,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2328767123287671</v>
+        <v>0.2236842105263158</v>
       </c>
       <c r="C58">
         <v>17</v>
@@ -3223,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3231,13 +2628,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2289156626506024</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C59">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D59">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3249,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3257,13 +2654,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2183908045977012</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="C60">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D60">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3275,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>68</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3283,13 +2680,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2123893805309734</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="C61">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3301,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3309,13 +2706,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.202020202020202</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3327,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3335,25 +2732,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2016348773841962</v>
+        <v>0.1386666666666667</v>
       </c>
       <c r="C63">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D63">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E63">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>586</v>
+        <v>969</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3361,13 +2758,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2015503875968992</v>
+        <v>0.1310344827586207</v>
       </c>
       <c r="C64">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D64">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3379,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>103</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3387,13 +2784,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1981981981981982</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C65">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D65">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3405,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3413,13 +2810,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1844660194174757</v>
+        <v>0.1266846361185984</v>
       </c>
       <c r="C66">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D66">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3431,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>84</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3439,25 +2836,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1842105263157895</v>
+        <v>0.125</v>
       </c>
       <c r="C67">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D67">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E67">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3465,13 +2862,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1804878048780488</v>
+        <v>0.1146496815286624</v>
       </c>
       <c r="C68">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D68">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3483,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>336</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3491,13 +2888,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1785714285714286</v>
+        <v>0.1122448979591837</v>
       </c>
       <c r="C69">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D69">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3509,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>69</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3517,13 +2914,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1690140845070423</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C70">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D70">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3535,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3543,13 +2940,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1649484536082474</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="C71">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D71">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3561,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>81</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3569,25 +2966,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1601049868766404</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C72">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="D72">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="E72">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>640</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3595,13 +2992,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1538461538461539</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="C73">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D73">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3613,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3621,13 +3018,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.15</v>
+        <v>0.06720430107526881</v>
       </c>
       <c r="C74">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D74">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3639,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>85</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3647,25 +3044,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1456953642384106</v>
+        <v>0.06696428571428571</v>
       </c>
       <c r="C75">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D75">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E75">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>129</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3673,25 +3070,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1428571428571428</v>
+        <v>0.06550218340611354</v>
       </c>
       <c r="C76">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D76">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E76">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>168</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3699,13 +3096,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1404682274247492</v>
+        <v>0.06367432150313153</v>
       </c>
       <c r="C77">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D77">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3717,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>257</v>
+        <v>897</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3725,13 +3122,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1272727272727273</v>
+        <v>0.06343283582089553</v>
       </c>
       <c r="C78">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D78">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3743,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>144</v>
+        <v>502</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3751,13 +3148,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1132075471698113</v>
+        <v>0.05491105955143078</v>
       </c>
       <c r="C79">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D79">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3769,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>141</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3777,25 +3174,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1095890410958904</v>
+        <v>0.05460750853242321</v>
       </c>
       <c r="C80">
         <v>16</v>
       </c>
       <c r="D80">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E80">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>130</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3803,25 +3200,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1041666666666667</v>
+        <v>0.05449591280653951</v>
       </c>
       <c r="C81">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D81">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E81">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>129</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3829,25 +3226,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1013513513513514</v>
+        <v>0.05161290322580645</v>
       </c>
       <c r="C82">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D82">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E82">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>133</v>
+        <v>441</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3855,25 +3252,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="C83">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D83">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E83">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>162</v>
+        <v>728</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3881,25 +3278,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.09693877551020408</v>
+        <v>0.04897959183673469</v>
       </c>
       <c r="C84">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D84">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E84">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>354</v>
+        <v>699</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3907,13 +3304,13 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.08196721311475409</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="C85">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D85">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E85">
         <v>0.06</v>
@@ -3925,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>168</v>
+        <v>340</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3933,13 +3330,13 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.07536231884057971</v>
+        <v>0.04416809605488851</v>
       </c>
       <c r="C86">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="D86">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3951,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>319</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3959,25 +3356,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.07407407407407407</v>
+        <v>0.0426829268292683</v>
       </c>
       <c r="C87">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D87">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E87">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>250</v>
+        <v>471</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3985,25 +3382,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07255520504731862</v>
+        <v>0.03938730853391685</v>
       </c>
       <c r="C88">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D88">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E88">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>294</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4011,25 +3408,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.06485539000876424</v>
+        <v>0.0392662219526986</v>
       </c>
       <c r="C89">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="D89">
-        <v>90</v>
+        <v>263</v>
       </c>
       <c r="E89">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="F89">
-        <v>0.8200000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>1067</v>
+        <v>6337</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4037,25 +3434,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.06478873239436619</v>
+        <v>0.03873552983081033</v>
       </c>
       <c r="C90">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="D90">
-        <v>26</v>
+        <v>268</v>
       </c>
       <c r="E90">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="F90">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>332</v>
+        <v>6477</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4063,25 +3460,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.06188118811881188</v>
+        <v>0.03800140745953554</v>
       </c>
       <c r="C91">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D91">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E91">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="F91">
-        <v>0.78</v>
+        <v>0.98</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>379</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4089,25 +3486,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.05609284332688588</v>
+        <v>0.03761061946902655</v>
       </c>
       <c r="C92">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D92">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E92">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="F92">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>488</v>
+        <v>435</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4115,25 +3512,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05365853658536585</v>
+        <v>0.03676470588235294</v>
       </c>
       <c r="C93">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D93">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E93">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="F93">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4141,25 +3538,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.04945054945054945</v>
+        <v>0.03442622950819672</v>
       </c>
       <c r="C94">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D94">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E94">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>346</v>
+        <v>589</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4167,25 +3564,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.04904632152588556</v>
+        <v>0.03054448871181939</v>
       </c>
       <c r="C95">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D95">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E95">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="F95">
-        <v>0.8200000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>349</v>
+        <v>730</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4193,25 +3590,389 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.04901036757775683</v>
+        <v>0.03013392857142857</v>
       </c>
       <c r="C96">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D96">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E96">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F96">
-        <v>0.83</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>1009</v>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>0.02985074626865672</v>
+      </c>
+      <c r="C97">
+        <v>20</v>
+      </c>
+      <c r="D97">
+        <v>20</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
+        <v>0.02941879933030376</v>
+      </c>
+      <c r="C98">
+        <v>123</v>
+      </c>
+      <c r="D98">
+        <v>125</v>
+      </c>
+      <c r="E98">
+        <v>0.02</v>
+      </c>
+      <c r="F98">
+        <v>0.98</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>0.02883317261330762</v>
+      </c>
+      <c r="C99">
+        <v>299</v>
+      </c>
+      <c r="D99">
+        <v>311</v>
+      </c>
+      <c r="E99">
+        <v>0.04</v>
+      </c>
+      <c r="F99">
+        <v>0.96</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>10071</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>0.02792022792022792</v>
+      </c>
+      <c r="C100">
+        <v>49</v>
+      </c>
+      <c r="D100">
+        <v>49</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
+        <v>0.02394636015325671</v>
+      </c>
+      <c r="C101">
+        <v>25</v>
+      </c>
+      <c r="D101">
+        <v>26</v>
+      </c>
+      <c r="E101">
+        <v>0.04</v>
+      </c>
+      <c r="F101">
+        <v>0.96</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>0.02288135593220339</v>
+      </c>
+      <c r="C102">
+        <v>27</v>
+      </c>
+      <c r="D102">
+        <v>27</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>0.02143041569842499</v>
+      </c>
+      <c r="C103">
+        <v>83</v>
+      </c>
+      <c r="D103">
+        <v>88</v>
+      </c>
+      <c r="E103">
+        <v>0.06</v>
+      </c>
+      <c r="F103">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>0.01914823374050842</v>
+      </c>
+      <c r="C104">
+        <v>58</v>
+      </c>
+      <c r="D104">
+        <v>59</v>
+      </c>
+      <c r="E104">
+        <v>0.02</v>
+      </c>
+      <c r="F104">
+        <v>0.98</v>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>0.01878538342768914</v>
+      </c>
+      <c r="C105">
+        <v>73</v>
+      </c>
+      <c r="D105">
+        <v>74</v>
+      </c>
+      <c r="E105">
+        <v>0.01</v>
+      </c>
+      <c r="F105">
+        <v>0.99</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>0.01816347124117054</v>
+      </c>
+      <c r="C106">
+        <v>18</v>
+      </c>
+      <c r="D106">
+        <v>18</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
+        <v>0.0160377358490566</v>
+      </c>
+      <c r="C107">
+        <v>51</v>
+      </c>
+      <c r="D107">
+        <v>56</v>
+      </c>
+      <c r="E107">
+        <v>0.09</v>
+      </c>
+      <c r="F107">
+        <v>0.91</v>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108">
+        <v>0.01387114436941048</v>
+      </c>
+      <c r="C108">
+        <v>76</v>
+      </c>
+      <c r="D108">
+        <v>86</v>
+      </c>
+      <c r="E108">
+        <v>0.12</v>
+      </c>
+      <c r="F108">
+        <v>0.88</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109">
+        <v>0.01099303774276292</v>
+      </c>
+      <c r="C109">
+        <v>30</v>
+      </c>
+      <c r="D109">
+        <v>31</v>
+      </c>
+      <c r="E109">
+        <v>0.03</v>
+      </c>
+      <c r="F109">
+        <v>0.97</v>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110">
+        <v>0.008323699421965317</v>
+      </c>
+      <c r="C110">
+        <v>36</v>
+      </c>
+      <c r="D110">
+        <v>49</v>
+      </c>
+      <c r="E110">
+        <v>0.27</v>
+      </c>
+      <c r="F110">
+        <v>0.73</v>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>4289</v>
       </c>
     </row>
   </sheetData>
